--- a/src/AeroelasticSE/FAST_mdao/ExampleCaseOF/02_Run/DLC1.2/settings.xlsx
+++ b/src/AeroelasticSE/FAST_mdao/ExampleCaseOF/02_Run/DLC1.2/settings.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E11281-CB6A-4965-82C9-7FDBA03E6762}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A125BA5-03B9-4FC7-92DF-0DD63831E9B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="1995" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>DLC</t>
   </si>
@@ -163,10 +163,19 @@
     <t>True</t>
   </si>
   <si>
-    <t>ECD</t>
-  </si>
-  <si>
-    <t>.wnd</t>
+    <t>SignChanges</t>
+  </si>
+  <si>
+    <t>NTM</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t># Describes the change of signs for the gust cases, (Pos, Neg, Pos Hor, Neg Hor, Pos Ver, Neg Ver or None)</t>
+  </si>
+  <si>
+    <t>.bts</t>
   </si>
 </sst>
 </file>
@@ -490,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -525,7 +534,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -533,7 +542,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -662,346 +671,357 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2">
-        <v>3</v>
-      </c>
-      <c r="C19" s="2">
-        <v>44.685338242930705</v>
-      </c>
-      <c r="D19" s="2">
-        <v>34.314660031033938</v>
-      </c>
-      <c r="E19">
-        <v>27.871237690175914</v>
-      </c>
-      <c r="F19">
-        <v>22.378830548210463</v>
-      </c>
-      <c r="G19">
-        <v>16.844412698831157</v>
-      </c>
-      <c r="H19">
-        <v>9.8053221232112566</v>
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2">
-        <v>31.411466645190334</v>
+        <v>44.685338242930705</v>
       </c>
       <c r="D20" s="2">
-        <v>25.405216352993527</v>
+        <v>34.314660031033938</v>
       </c>
       <c r="E20">
-        <v>21.494913040371351</v>
+        <v>27.871237690175914</v>
       </c>
       <c r="F20">
-        <v>18.019136892126841</v>
+        <v>22.378830548210463</v>
       </c>
       <c r="G20">
-        <v>14.341022362697059</v>
+        <v>16.844412698831157</v>
       </c>
       <c r="H20">
-        <v>9.2838984883439899</v>
+        <v>9.8053221232112566</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>25.771701729162878</v>
+        <v>31.411466645190334</v>
       </c>
       <c r="D21" s="2">
-        <v>21.582672338896881</v>
+        <v>25.405216352993527</v>
       </c>
       <c r="E21">
-        <v>18.768606176616593</v>
+        <v>21.494913040371351</v>
       </c>
       <c r="F21">
-        <v>16.195831077376948</v>
+        <v>18.019136892126841</v>
       </c>
       <c r="G21">
-        <v>13.382087414374331</v>
+        <v>14.341022362697059</v>
       </c>
       <c r="H21">
-        <v>9.3040223458444302</v>
+        <v>9.2838984883439899</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2">
-        <v>22.659882556145206</v>
+        <v>25.771701729162878</v>
       </c>
       <c r="D22" s="2">
-        <v>19.457252427405976</v>
+        <v>21.582672338896881</v>
       </c>
       <c r="E22">
-        <v>17.256899214687994</v>
+        <v>18.768606176616593</v>
       </c>
       <c r="F22">
-        <v>15.204128675121996</v>
+        <v>16.195831077376948</v>
       </c>
       <c r="G22">
-        <v>12.905282128570283</v>
+        <v>13.382087414374331</v>
       </c>
       <c r="H22">
-        <v>9.4443144549979827</v>
+        <v>9.3040223458444302</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2">
-        <v>20.690417487664199</v>
+        <v>22.659882556145206</v>
       </c>
       <c r="D23" s="2">
-        <v>18.103830909342825</v>
+        <v>19.457252427405976</v>
       </c>
       <c r="E23">
-        <v>16.296413559992267</v>
+        <v>17.256899214687994</v>
       </c>
       <c r="F23">
-        <v>14.5843574960405</v>
+        <v>15.204128675121996</v>
       </c>
       <c r="G23">
-        <v>12.632540527082799</v>
+        <v>12.905282128570283</v>
       </c>
       <c r="H23">
-        <v>9.6083615583674788</v>
+        <v>9.4443144549979827</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2">
-        <v>19.332960320970034</v>
+        <v>20.690417487664199</v>
       </c>
       <c r="D24" s="2">
-        <v>17.166362282849306</v>
+        <v>18.103830909342825</v>
       </c>
       <c r="E24">
-        <v>15.63232319323129</v>
+        <v>16.296413559992267</v>
       </c>
       <c r="F24">
-        <v>14.161861035370038</v>
+        <v>14.5843574960405</v>
       </c>
       <c r="G24">
-        <v>12.461952245552938</v>
+        <v>12.632540527082799</v>
       </c>
       <c r="H24">
-        <v>9.7682068833673679</v>
+        <v>9.6083615583674788</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" s="2">
-        <v>18.34111256360557</v>
+        <v>19.332960320970034</v>
       </c>
       <c r="D25" s="2">
-        <v>16.478597315269983</v>
+        <v>17.166362282849306</v>
       </c>
       <c r="E25">
-        <v>15.145850635937785</v>
+        <v>15.63232319323129</v>
       </c>
       <c r="F25">
-        <v>13.856113486836183</v>
+        <v>14.161861035370038</v>
       </c>
       <c r="G25">
-        <v>12.34837078659913</v>
+        <v>12.461952245552938</v>
       </c>
       <c r="H25">
-        <v>9.9155889208020298</v>
+        <v>9.7682068833673679</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2">
-        <v>17.584948580093311</v>
+        <v>18.34111256360557</v>
       </c>
       <c r="D26" s="2">
-        <v>15.952477627269984</v>
+        <v>16.478597315269983</v>
       </c>
       <c r="E26">
-        <v>14.774182770073164</v>
+        <v>15.145850635937785</v>
       </c>
       <c r="F26">
-        <v>13.624975761961394</v>
+        <v>13.856113486836183</v>
       </c>
       <c r="G26">
-        <v>12.269146293389653</v>
+        <v>12.34837078659913</v>
       </c>
       <c r="H26">
-        <v>10.048788779064841</v>
+        <v>9.9155889208020298</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>16.989517049965379</v>
+        <v>17.584948580093311</v>
       </c>
       <c r="D27" s="2">
-        <v>15.536999648274508</v>
+        <v>15.952477627269984</v>
       </c>
       <c r="E27">
-        <v>14.480990599225283</v>
+        <v>14.774182770073164</v>
       </c>
       <c r="F27">
-        <v>13.444317087680258</v>
+        <v>13.624975761961394</v>
       </c>
       <c r="G27">
-        <v>12.211858305281407</v>
+        <v>12.269146293389653</v>
       </c>
       <c r="H27">
-        <v>10.168358735904489</v>
+        <v>10.048788779064841</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2">
-        <v>16.508567847491403</v>
+        <v>16.989517049965379</v>
       </c>
       <c r="D28" s="2">
-        <v>15.200577535106504</v>
+        <v>15.536999648274508</v>
       </c>
       <c r="E28">
-        <v>14.243805263355897</v>
+        <v>14.480990599225283</v>
       </c>
       <c r="F28">
-        <v>13.299351213509929</v>
+        <v>13.444317087680258</v>
       </c>
       <c r="G28">
-        <v>12.169222304109063</v>
+        <v>12.211858305281407</v>
       </c>
       <c r="H28">
-        <v>10.275581861770371</v>
+        <v>10.168358735904489</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2">
-        <v>16.112024242503473</v>
+        <v>16.508567847491403</v>
       </c>
       <c r="D29" s="2">
-        <v>14.922604791420088</v>
+        <v>15.200577535106504</v>
       </c>
       <c r="E29">
-        <v>14.047985299658155</v>
+        <v>14.243805263355897</v>
       </c>
       <c r="F29">
-        <v>13.180526045075784</v>
+        <v>13.299351213509929</v>
       </c>
       <c r="G29">
-        <v>12.136734286757125</v>
+        <v>12.169222304109063</v>
       </c>
       <c r="H29">
-        <v>10.371888868493462</v>
+        <v>10.275581861770371</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="2">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2">
+        <v>16.112024242503473</v>
+      </c>
+      <c r="D30" s="2">
+        <v>14.922604791420088</v>
+      </c>
+      <c r="E30">
+        <v>14.047985299658155</v>
+      </c>
+      <c r="F30">
+        <v>13.180526045075784</v>
+      </c>
+      <c r="G30">
+        <v>12.136734286757125</v>
+      </c>
+      <c r="H30">
+        <v>10.371888868493462</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B31" s="2">
         <v>24</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="2">
         <v>15.93876244940475</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D31" s="2">
         <v>14.800974346525814</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>13.962348591758539</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>13.128818581335807</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <v>12.123344766182081</v>
       </c>
-      <c r="H30">
+      <c r="H31">
         <v>10.416379065691366</v>
       </c>
     </row>
